--- a/doc/Матрица состояний.xlsx
+++ b/doc/Матрица состояний.xlsx
@@ -196,12 +196,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,9 +234,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -504,7 +531,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +664,7 @@
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -660,35 +687,35 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="1"/>
@@ -732,29 +759,29 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L9" s="1"/>
@@ -778,35 +805,35 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="1"/>
@@ -814,33 +841,33 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="1"/>
@@ -848,33 +875,33 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="1"/>
@@ -882,33 +909,33 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="1"/>
